--- a/program_directory/interpreterAccounting/顺丰控股：2016年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/顺丰控股：2016年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
@@ -744,6 +744,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="MingLiU"/>
+        <charset val="134"/>
+      </rPr>
       <t>四</t>
     </r>
     <r>
@@ -2154,10 +2159,10 @@
     <t>减：营业成本</t>
   </si>
   <si>
-    <t>(46,165,166,641.49)</t>
-  </si>
-  <si>
-    <t>(38,585,903,834.79)</t>
+    <t>46,165,166,641.49</t>
+  </si>
+  <si>
+    <t>38,585,903,834.79</t>
   </si>
   <si>
     <t>(336,446,991.61)</t>
@@ -2172,10 +2177,10 @@
     <t>四(43)</t>
   </si>
   <si>
-    <t>(203,300,318.34)</t>
-  </si>
-  <si>
-    <t>(185,521,149.31)</t>
+    <t>203,300,318.34</t>
+  </si>
+  <si>
+    <t>185,521,149.31</t>
   </si>
   <si>
     <t>(27,461,169.89)</t>
@@ -2190,10 +2195,10 @@
     <t>四(44)</t>
   </si>
   <si>
-    <t>(1,150,596,698.85)</t>
-  </si>
-  <si>
-    <t>(1,954,003,476.23)</t>
+    <t>1,150,596,698.85</t>
+  </si>
+  <si>
+    <t>1,954,003,476.23</t>
   </si>
   <si>
     <t>(28,022,422.11)</t>
@@ -2208,10 +2213,10 @@
     <t>四(45)</t>
   </si>
   <si>
-    <t>(6,079,455,133.67)</t>
-  </si>
-  <si>
-    <t>(5,822,190,502.80)</t>
+    <t>6,079,455,133.67</t>
+  </si>
+  <si>
+    <t>5,822,190,502.80</t>
   </si>
   <si>
     <t>(40,112,852.33)</t>
@@ -2226,10 +2231,10 @@
     <t>四(46)</t>
   </si>
   <si>
-    <t>(417,428,212.60)</t>
-  </si>
-  <si>
-    <t>(397,235,198.53)</t>
+    <t>417,428,212.60</t>
+  </si>
+  <si>
+    <t>397,235,198.53</t>
   </si>
   <si>
     <t>(2,839,717.36)</t>
@@ -2244,10 +2249,10 @@
     <t>四(48)</t>
   </si>
   <si>
-    <t>(19,172,492.00)</t>
-  </si>
-  <si>
-    <t>(180,567,433.16)</t>
+    <t>19,172,492.00</t>
+  </si>
+  <si>
+    <t>180,567,433.16</t>
   </si>
   <si>
     <t>(1,251,845.14)</t>
@@ -2346,10 +2351,10 @@
     <t>四(50)(b)</t>
   </si>
   <si>
-    <t>(81,654,299.47)</t>
-  </si>
-  <si>
-    <t>(72,598,826.23)</t>
+    <t>81,654,299.47</t>
+  </si>
+  <si>
+    <t>72,598,826.23</t>
   </si>
   <si>
     <t>(2,564,354.33)</t>
@@ -2361,10 +2366,10 @@
     <t>其中：非流动资产处置损失</t>
   </si>
   <si>
-    <t>(28,502,390.44)</t>
-  </si>
-  <si>
-    <t>(27,697,981.01)</t>
+    <t>28,502,390.44</t>
+  </si>
+  <si>
+    <t>27,697,981.01</t>
   </si>
   <si>
     <t>三、利润总额</t>
@@ -2388,10 +2393,10 @@
     <t>四(52)</t>
   </si>
   <si>
-    <t>(1,029,946,431.86)</t>
-  </si>
-  <si>
-    <t>(596,283,890.05)</t>
+    <t>1,029,946,431.86</t>
+  </si>
+  <si>
+    <t>596,283,890.05</t>
   </si>
   <si>
     <t>(15,028,241.34)</t>
@@ -3712,10 +3717,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -3809,6 +3814,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3824,17 +3837,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3858,22 +3878,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3888,7 +3893,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3902,30 +3914,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3952,7 +3957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3964,13 +3993,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3982,19 +4059,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4006,121 +4125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4244,6 +4249,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -4264,15 +4278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4284,6 +4289,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4317,153 +4333,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4476,7 +4481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
@@ -4603,9 +4608,6 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
@@ -4637,9 +4639,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="justify"/>
@@ -5013,9 +5012,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" indent="1"/>
@@ -5619,185 +5615,185 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:5">
-      <c r="A1" s="251"/>
-      <c r="B1" s="252" t="s">
+      <c r="A1" s="248"/>
+      <c r="B1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="252" t="s">
+      <c r="C1" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="249" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:5">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="255">
+      <c r="B2" s="252">
         <v>57482698073.15</v>
       </c>
-      <c r="C2" s="255">
+      <c r="C2" s="252">
         <v>48101154759.5</v>
       </c>
-      <c r="D2" s="256">
+      <c r="D2" s="253">
         <v>0.195</v>
       </c>
-      <c r="E2" s="255">
+      <c r="E2" s="252">
         <v>38911141418.02</v>
       </c>
     </row>
-    <row r="3" ht="34.5" spans="1:5">
-      <c r="A3" s="257" t="s">
+    <row r="3" ht="23.25" spans="1:5">
+      <c r="A3" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="255">
+      <c r="B3" s="252">
         <v>4180426152</v>
       </c>
-      <c r="C3" s="255">
+      <c r="C3" s="252">
         <v>1101430807.3</v>
       </c>
-      <c r="D3" s="258">
+      <c r="D3" s="255">
         <v>2.7955</v>
       </c>
-      <c r="E3" s="255">
+      <c r="E3" s="252">
         <v>478466671.4</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:5">
-      <c r="A4" s="257" t="s">
+    <row r="4" ht="34.5" spans="1:5">
+      <c r="A4" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="255">
+      <c r="B4" s="252">
         <v>2643209426.99</v>
       </c>
-      <c r="C4" s="255">
+      <c r="C4" s="252">
         <v>753509926.89</v>
       </c>
-      <c r="D4" s="258">
+      <c r="D4" s="255">
         <v>2.5079</v>
       </c>
-      <c r="E4" s="255">
+      <c r="E4" s="252">
         <v>307122241.6</v>
       </c>
     </row>
-    <row r="5" ht="34.5" spans="1:5">
-      <c r="A5" s="257" t="s">
+    <row r="5" ht="23.25" spans="1:5">
+      <c r="A5" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="255">
+      <c r="B5" s="252">
         <v>5675037785.87</v>
       </c>
-      <c r="C5" s="255">
+      <c r="C5" s="252">
         <v>2782081832.55</v>
       </c>
-      <c r="D5" s="258">
+      <c r="D5" s="255">
         <v>1.0399</v>
       </c>
-      <c r="E5" s="255">
+      <c r="E5" s="252">
         <v>724593601.55</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:5">
-      <c r="A6" s="254" t="s">
+      <c r="A6" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="259">
+      <c r="B6" s="256">
         <v>1.06</v>
       </c>
-      <c r="C6" s="259">
+      <c r="C6" s="256">
         <v>0.28</v>
       </c>
-      <c r="D6" s="258">
+      <c r="D6" s="255">
         <v>2.7857</v>
       </c>
-      <c r="E6" s="259">
+      <c r="E6" s="256">
         <v>0.12</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:5">
-      <c r="A7" s="254" t="s">
+      <c r="A7" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="259">
+      <c r="B7" s="256">
         <v>1.06</v>
       </c>
-      <c r="C7" s="259">
+      <c r="C7" s="256">
         <v>0.28</v>
       </c>
-      <c r="D7" s="258">
+      <c r="D7" s="255">
         <v>2.7857</v>
       </c>
-      <c r="E7" s="259">
+      <c r="E7" s="256">
         <v>0.12</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:5">
-      <c r="A8" s="254" t="s">
+      <c r="A8" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="258">
+      <c r="B8" s="255">
         <v>0.2246</v>
       </c>
-      <c r="C8" s="258">
+      <c r="C8" s="255">
         <v>0.0783</v>
       </c>
-      <c r="D8" s="256">
+      <c r="D8" s="253">
         <v>0.1463</v>
       </c>
-      <c r="E8" s="258">
+      <c r="E8" s="255">
         <v>0.0337</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:5">
-      <c r="A9" s="251"/>
-      <c r="B9" s="260" t="s">
+      <c r="A9" s="248"/>
+      <c r="B9" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="261" t="s">
+      <c r="D9" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="260" t="s">
+      <c r="E9" s="257" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:5">
-      <c r="A10" s="254" t="s">
+      <c r="A10" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="255">
+      <c r="B10" s="252">
         <v>44134885588.74</v>
       </c>
-      <c r="C10" s="255">
+      <c r="C10" s="252">
         <v>34716573312.3</v>
       </c>
-      <c r="D10" s="256">
+      <c r="D10" s="253">
         <v>0.2713</v>
       </c>
-      <c r="E10" s="255">
+      <c r="E10" s="252">
         <v>27426447673.89</v>
       </c>
     </row>
-    <row r="11" ht="34.5" spans="1:5">
-      <c r="A11" s="257" t="s">
+    <row r="11" ht="23.25" spans="1:5">
+      <c r="A11" s="254" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="255">
+      <c r="B11" s="252">
         <v>20511767666.96</v>
       </c>
-      <c r="C11" s="255">
+      <c r="C11" s="252">
         <v>13695736209.49</v>
       </c>
-      <c r="D11" s="256">
+      <c r="D11" s="253">
         <v>0.4977</v>
       </c>
-      <c r="E11" s="255">
+      <c r="E11" s="252">
         <v>14437076775.25</v>
       </c>
     </row>
@@ -5812,8 +5808,8 @@
   <sheetPr/>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -5827,1207 +5823,1207 @@
     <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:6">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="172" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="155"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="177">
+      <c r="C3" s="175">
         <v>6915508971.95</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="175">
         <v>3620373346.93</v>
       </c>
-      <c r="E3" s="222">
+      <c r="E3" s="219">
         <v>60156545.77</v>
       </c>
-      <c r="F3" s="189">
+      <c r="F3" s="186">
         <v>92171132.32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="157"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="155"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="178" t="s">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="177">
+      <c r="C5" s="175">
         <v>33803417.04</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D5" s="175">
         <v>369166423.17</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="177">
+      <c r="B6" s="78"/>
+      <c r="C6" s="175">
         <v>4406697.24</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="175">
         <v>3319778.83</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="189">
+      <c r="F6" s="186">
         <v>63864782.09</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="177">
+      <c r="C7" s="175">
         <v>4559911486.72</v>
       </c>
-      <c r="D7" s="177">
+      <c r="D7" s="175">
         <v>3992559043.49</v>
       </c>
-      <c r="E7" s="223" t="s">
+      <c r="E7" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="175">
         <v>161477605.37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="177">
+      <c r="C8" s="175">
         <v>1492549226.12</v>
       </c>
-      <c r="D8" s="177">
+      <c r="D8" s="175">
         <v>1474751865.1</v>
       </c>
-      <c r="E8" s="223" t="s">
+      <c r="E8" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="189">
+      <c r="F8" s="186">
         <v>86217596.53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="179" t="s">
+      <c r="C9" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="189">
+      <c r="E9" s="186">
         <v>800000000</v>
       </c>
-      <c r="F9" s="180" t="s">
+      <c r="F9" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="176" t="s">
+      <c r="A10" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="177">
+      <c r="D10" s="175">
         <v>247384184.78</v>
       </c>
-      <c r="E10" s="223" t="s">
+      <c r="E10" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="180" t="s">
+      <c r="F10" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="177">
+      <c r="C11" s="175">
         <v>85271730.78</v>
       </c>
-      <c r="D11" s="177">
+      <c r="D11" s="175">
         <v>263120425.37</v>
       </c>
-      <c r="E11" s="223" t="s">
+      <c r="E11" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="180" t="s">
+      <c r="F11" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="177">
+      <c r="C12" s="175">
         <v>5241461.07</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="175">
         <v>6118865.05</v>
       </c>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="224">
+      <c r="F12" s="221">
         <v>178161.87</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="177">
+      <c r="C13" s="175">
         <v>1019657880.86</v>
       </c>
-      <c r="D13" s="177">
+      <c r="D13" s="175">
         <v>1059934154.81</v>
       </c>
-      <c r="E13" s="222">
+      <c r="E13" s="219">
         <v>13179087.61</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="175">
         <v>150537020.98</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="177">
+      <c r="C14" s="175">
         <v>396013674.76</v>
       </c>
-      <c r="D14" s="177">
+      <c r="D14" s="175">
         <v>256097919.05</v>
       </c>
-      <c r="E14" s="223" t="s">
+      <c r="E14" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="177">
+      <c r="F14" s="175">
         <v>123661078.5</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="180" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="184">
+      <c r="C15" s="181">
         <v>6820810214.74</v>
       </c>
-      <c r="D15" s="184">
+      <c r="D15" s="181">
         <v>7289661587.29</v>
       </c>
-      <c r="E15" s="225" t="s">
+      <c r="E15" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="226" t="s">
+      <c r="F15" s="223" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="186">
+      <c r="B16" s="78"/>
+      <c r="C16" s="183">
         <v>21333174761.28</v>
       </c>
-      <c r="D16" s="186">
+      <c r="D16" s="183">
         <v>18582487593.87</v>
       </c>
-      <c r="E16" s="227">
+      <c r="E16" s="224">
         <v>873335633.38</v>
       </c>
-      <c r="F16" s="186">
+      <c r="F16" s="183">
         <v>678107377.66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="161"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="159"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="177">
+      <c r="C18" s="175">
         <v>696583087.01</v>
       </c>
-      <c r="D18" s="177">
+      <c r="D18" s="175">
         <v>216487125.87</v>
       </c>
-      <c r="E18" s="223" t="s">
+      <c r="E18" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="228">
+      <c r="F18" s="225">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="176" t="s">
+      <c r="A19" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="179" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="177">
+      <c r="D19" s="175">
         <v>108503565.43</v>
       </c>
-      <c r="E19" s="223" t="s">
+      <c r="E19" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="180" t="s">
+      <c r="F19" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="187" t="s">
+      <c r="B20" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="175">
         <v>769698763.51</v>
       </c>
-      <c r="D20" s="177">
+      <c r="D20" s="175">
         <v>1481672391.47</v>
       </c>
-      <c r="E20" s="229">
+      <c r="E20" s="226">
         <v>43300000000</v>
       </c>
-      <c r="F20" s="189">
+      <c r="F20" s="186">
         <v>50000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="174" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="175">
         <v>2148095293.1</v>
       </c>
-      <c r="D21" s="177">
+      <c r="D21" s="175">
         <v>150517735.96</v>
       </c>
-      <c r="E21" s="223" t="s">
+      <c r="E21" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="180" t="s">
+      <c r="F21" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="175">
         <v>11678342577.66</v>
       </c>
-      <c r="D22" s="177">
+      <c r="D22" s="175">
         <v>7826299063.17</v>
       </c>
-      <c r="E22" s="223" t="s">
+      <c r="E22" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="177">
+      <c r="F22" s="175">
         <v>105248526.45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="175">
         <v>844498050.62</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D23" s="175">
         <v>1638588258.84</v>
       </c>
-      <c r="E23" s="223" t="s">
+      <c r="E23" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="228">
+      <c r="F23" s="225">
         <v>672380.7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="177">
+      <c r="C24" s="175">
         <v>4476298732.57</v>
       </c>
-      <c r="D24" s="177">
+      <c r="D24" s="175">
         <v>2286626063.96</v>
       </c>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="189">
+      <c r="F24" s="186">
         <v>19868098.66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="177">
+      <c r="C25" s="175">
         <v>243316365.57</v>
       </c>
-      <c r="D25" s="189">
+      <c r="D25" s="186">
         <v>200140519.51</v>
       </c>
-      <c r="E25" s="223" t="s">
+      <c r="E25" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="180" t="s">
+      <c r="F25" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="175">
         <v>58030760.81</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D26" s="175">
         <v>57929676.62</v>
       </c>
-      <c r="E26" s="223" t="s">
+      <c r="E26" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="180" t="s">
+      <c r="F26" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="175">
         <v>1271129829.62</v>
       </c>
-      <c r="D27" s="177">
+      <c r="D27" s="175">
         <v>1075527299.73</v>
       </c>
-      <c r="E27" s="223" t="s">
+      <c r="E27" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="175">
         <v>417890993.08</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D28" s="175">
         <v>544975395.83</v>
       </c>
-      <c r="E28" s="223" t="s">
+      <c r="E28" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="222">
+      <c r="F28" s="219">
         <v>1859788.03</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="190" t="s">
+      <c r="B29" s="187" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="184">
+      <c r="C29" s="181">
         <v>197826373.91</v>
       </c>
-      <c r="D29" s="184">
+      <c r="D29" s="181">
         <v>546818622.04</v>
       </c>
-      <c r="E29" s="230" t="s">
+      <c r="E29" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="231">
+      <c r="F29" s="228">
         <v>9733730</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="186">
+      <c r="B30" s="78"/>
+      <c r="C30" s="183">
         <v>22801710827.46</v>
       </c>
-      <c r="D30" s="186">
+      <c r="D30" s="183">
         <v>16134085718.43</v>
       </c>
-      <c r="E30" s="232">
+      <c r="E30" s="229">
         <v>43300000000</v>
       </c>
-      <c r="F30" s="186">
+      <c r="F30" s="183">
         <v>187432523.84</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="186">
+      <c r="B31" s="78"/>
+      <c r="C31" s="183">
         <v>44134885588.74</v>
       </c>
-      <c r="D31" s="186">
+      <c r="D31" s="183">
         <v>34716573312.3</v>
       </c>
-      <c r="E31" s="232">
+      <c r="E31" s="229">
         <v>44173335633.38</v>
       </c>
-      <c r="F31" s="186">
+      <c r="F31" s="183">
         <v>865539901.5</v>
       </c>
     </row>
     <row r="32" ht="33" spans="1:6">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="172" t="s">
+      <c r="B32" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="192" t="s">
+      <c r="C32" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="193" t="s">
+      <c r="D32" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="233" t="s">
+      <c r="E32" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="233" t="s">
+      <c r="F32" s="230" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="194" t="s">
+      <c r="A34" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="196">
+      <c r="C34" s="193">
         <v>5466278976.31</v>
       </c>
-      <c r="D34" s="196">
+      <c r="D34" s="193">
         <v>6585339112.59</v>
       </c>
-      <c r="E34" s="234">
+      <c r="E34" s="231">
         <v>20000000</v>
       </c>
-      <c r="F34" s="235">
+      <c r="F34" s="232">
         <v>67000000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="199">
+      <c r="B36" s="78"/>
+      <c r="C36" s="196">
         <v>1209158.71</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="197">
         <v>98865.95</v>
       </c>
-      <c r="E36" s="236" t="s">
+      <c r="E36" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="237" t="s">
+      <c r="F36" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="201" t="s">
+      <c r="A37" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="202" t="s">
+      <c r="C37" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="197">
         <v>190000000</v>
       </c>
-      <c r="E37" s="236" t="s">
+      <c r="E37" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="238">
+      <c r="F37" s="235">
         <v>58288000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="201" t="s">
+      <c r="A38" s="198" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="184" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="200">
+      <c r="C38" s="197">
         <v>5259177206.37</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="197">
         <v>3095473088.69</v>
       </c>
-      <c r="E38" s="236" t="s">
+      <c r="E38" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="239">
+      <c r="F38" s="236">
         <v>7896982.58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="201" t="s">
+      <c r="A39" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="187" t="s">
+      <c r="B39" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="200">
+      <c r="C39" s="197">
         <v>286348742.43</v>
       </c>
-      <c r="D39" s="200">
+      <c r="D39" s="197">
         <v>200147358.17</v>
       </c>
-      <c r="E39" s="236" t="s">
+      <c r="E39" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="239">
+      <c r="F39" s="236">
         <v>1229279.97</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="201" t="s">
+      <c r="A40" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="187" t="s">
+      <c r="B40" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="203">
-        <v>62</v>
-      </c>
-      <c r="D40" s="200">
+      <c r="C40" s="200">
+        <v>2138659367.34</v>
+      </c>
+      <c r="D40" s="197">
         <v>2655787901.43</v>
       </c>
-      <c r="E40" s="236" t="s">
+      <c r="E40" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="239">
+      <c r="F40" s="236">
         <v>1316309.09</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="197" t="s">
+      <c r="A41" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="205">
+      <c r="C41" s="202">
         <v>419174348.67</v>
       </c>
-      <c r="D41" s="205">
+      <c r="D41" s="202">
         <v>574836713.53</v>
       </c>
-      <c r="E41" s="215">
+      <c r="E41" s="212">
         <v>47528429.77</v>
       </c>
-      <c r="F41" s="240">
+      <c r="F41" s="237">
         <v>15542452.12</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="194" t="s">
+      <c r="A42" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="195" t="s">
+      <c r="B42" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="206">
+      <c r="C42" s="203">
         <v>13899791.33</v>
       </c>
-      <c r="D42" s="196">
+      <c r="D42" s="193">
         <v>14836849.66</v>
       </c>
-      <c r="E42" s="241">
+      <c r="E42" s="238">
         <v>24165.67</v>
       </c>
-      <c r="F42" s="206">
+      <c r="F42" s="203">
         <v>2781066.13</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="196">
+      <c r="C43" s="193">
         <v>3485959567.99</v>
       </c>
-      <c r="D43" s="196">
+      <c r="D43" s="193">
         <v>2434631184.49</v>
       </c>
-      <c r="E43" s="241">
+      <c r="E43" s="238">
         <v>5783037.94</v>
       </c>
-      <c r="F43" s="242">
+      <c r="F43" s="239">
         <v>912126.16</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="201" t="s">
+      <c r="A44" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="187" t="s">
+      <c r="B44" s="184" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="200">
+      <c r="C44" s="197">
         <v>1316242561.22</v>
       </c>
-      <c r="D44" s="200">
+      <c r="D44" s="197">
         <v>672948311.13</v>
       </c>
-      <c r="E44" s="236" t="s">
+      <c r="E44" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="237" t="s">
+      <c r="F44" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
-      <c r="A45" s="201" t="s">
+      <c r="A45" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="207">
+      <c r="B45" s="78"/>
+      <c r="C45" s="204">
         <v>8763.78</v>
       </c>
-      <c r="D45" s="208" t="s">
+      <c r="D45" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="243" t="s">
+      <c r="E45" s="240" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="244" t="s">
+      <c r="F45" s="241" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
-      <c r="A46" s="185" t="s">
+      <c r="A46" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="209">
+      <c r="B46" s="78"/>
+      <c r="C46" s="206">
         <v>18386958484.15</v>
       </c>
-      <c r="D46" s="209">
+      <c r="D46" s="206">
         <v>16424099385.64</v>
       </c>
-      <c r="E46" s="245">
+      <c r="E46" s="242">
         <v>73335633.38</v>
       </c>
-      <c r="F46" s="245">
+      <c r="F46" s="242">
         <v>154966216.05</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="185" t="s">
+      <c r="A47" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="201" t="s">
+      <c r="A48" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="187" t="s">
+      <c r="B48" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="200">
+      <c r="C48" s="197">
         <v>4761013384.37</v>
       </c>
-      <c r="D48" s="200">
+      <c r="D48" s="197">
         <v>4027363368.47</v>
       </c>
-      <c r="E48" s="236" t="s">
+      <c r="E48" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="239">
+      <c r="F48" s="236">
         <v>6640000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="201" t="s">
+      <c r="A49" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="187" t="s">
+      <c r="B49" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="200">
+      <c r="C49" s="197">
         <v>27000000</v>
       </c>
-      <c r="D49" s="200">
+      <c r="D49" s="197">
         <v>6675473.13</v>
       </c>
-      <c r="E49" s="236" t="s">
+      <c r="E49" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="237" t="s">
+      <c r="F49" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="201" t="s">
+      <c r="A50" s="198" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="187" t="s">
+      <c r="B50" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="200">
+      <c r="C50" s="197">
         <v>235267336.93</v>
       </c>
-      <c r="D50" s="200">
+      <c r="D50" s="197">
         <v>388488177.17</v>
       </c>
-      <c r="E50" s="236" t="s">
+      <c r="E50" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="237" t="s">
+      <c r="F50" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="201" t="s">
+      <c r="A51" s="198" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="187" t="s">
+      <c r="B51" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="200">
+      <c r="C51" s="197">
         <v>111667389.34</v>
       </c>
-      <c r="D51" s="200">
+      <c r="D51" s="197">
         <v>64762707.13</v>
       </c>
-      <c r="E51" s="236" t="s">
+      <c r="E51" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="237" t="s">
+      <c r="F51" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="201" t="s">
+      <c r="A52" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="187" t="s">
+      <c r="B52" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="200">
+      <c r="C52" s="197">
         <v>45267778.02</v>
       </c>
-      <c r="D52" s="200">
+      <c r="D52" s="197">
         <v>34814422.15</v>
       </c>
-      <c r="E52" s="236" t="s">
+      <c r="E52" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="F52" s="237" t="s">
+      <c r="F52" s="234" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:6">
-      <c r="A53" s="194" t="s">
+      <c r="A53" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="195" t="s">
+      <c r="B53" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="210">
+      <c r="C53" s="207">
         <v>11047033.68</v>
       </c>
-      <c r="D53" s="211">
+      <c r="D53" s="208">
         <v>11506895.48</v>
       </c>
-      <c r="E53" s="243" t="s">
+      <c r="E53" s="240" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="244" t="s">
+      <c r="F53" s="241" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="1:6">
-      <c r="A54" s="185" t="s">
+      <c r="A54" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="209">
+      <c r="B54" s="78"/>
+      <c r="C54" s="206">
         <v>5191262922.34</v>
       </c>
-      <c r="D54" s="209">
+      <c r="D54" s="206">
         <v>4533611043.53</v>
       </c>
-      <c r="E54" s="246" t="s">
+      <c r="E54" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="247">
+      <c r="F54" s="244">
         <v>6640000</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="1:6">
-      <c r="A55" s="185" t="s">
+      <c r="A55" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="209">
+      <c r="B55" s="78"/>
+      <c r="C55" s="206">
         <v>23578221406.49</v>
       </c>
-      <c r="D55" s="209">
+      <c r="D55" s="206">
         <v>20957710429.17</v>
       </c>
-      <c r="E55" s="245">
+      <c r="E55" s="242">
         <v>73335633.38</v>
       </c>
-      <c r="F55" s="245">
+      <c r="F55" s="242">
         <v>161606216.05</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="212" t="s">
+      <c r="A56" s="209" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="213"/>
-      <c r="C56" s="213"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213"/>
-      <c r="F56" s="213"/>
+      <c r="B56" s="210"/>
+      <c r="C56" s="210"/>
+      <c r="D56" s="210"/>
+      <c r="E56" s="210"/>
+      <c r="F56" s="210"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="197" t="s">
+      <c r="A57" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="214" t="s">
+      <c r="B57" s="211" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="205">
+      <c r="C57" s="202">
         <v>4183678213</v>
       </c>
-      <c r="D57" s="215">
+      <c r="D57" s="212">
         <v>3950185873</v>
       </c>
-      <c r="E57" s="248">
+      <c r="E57" s="245">
         <v>4183678213</v>
       </c>
-      <c r="F57" s="215">
+      <c r="F57" s="212">
         <v>116746170</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="197" t="s">
+      <c r="A58" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="214" t="s">
+      <c r="B58" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="205">
+      <c r="C58" s="202">
         <v>8236698341.64</v>
       </c>
-      <c r="D58" s="215">
+      <c r="D58" s="212">
         <v>4540733277.62</v>
       </c>
-      <c r="E58" s="249">
+      <c r="E58" s="246">
         <v>38991327794.39</v>
       </c>
-      <c r="F58" s="215">
+      <c r="F58" s="212">
         <v>541080749.78</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="197" t="s">
+      <c r="A59" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="214" t="s">
+      <c r="B59" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="205">
+      <c r="C59" s="202">
         <v>272113202.75</v>
       </c>
-      <c r="D59" s="216">
+      <c r="D59" s="213">
         <v>20970706.84</v>
       </c>
-      <c r="E59" s="240">
+      <c r="E59" s="237">
         <v>119068202.44</v>
       </c>
-      <c r="F59" s="240">
+      <c r="F59" s="237">
         <v>29545033.37</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="197" t="s">
+      <c r="A60" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="214" t="s">
+      <c r="B60" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="205">
+      <c r="C60" s="202">
         <v>7552595222.64</v>
       </c>
-      <c r="D60" s="215">
+      <c r="D60" s="212">
         <v>5123311566.55</v>
       </c>
-      <c r="E60" s="240">
+      <c r="E60" s="237">
         <v>805925790.17</v>
       </c>
-      <c r="F60" s="240">
+      <c r="F60" s="237">
         <v>16561732.3</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="1:6">
-      <c r="A61" s="194" t="s">
+      <c r="A61" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="217" t="s">
+      <c r="B61" s="214" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="211">
+      <c r="C61" s="208">
         <v>266682686.93</v>
       </c>
-      <c r="D61" s="210">
+      <c r="D61" s="207">
         <v>60534785.48</v>
       </c>
-      <c r="E61" s="208" t="s">
+      <c r="E61" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="244" t="s">
+      <c r="F61" s="241" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="185" t="s">
+      <c r="A62" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="218"/>
-      <c r="C62" s="219">
+      <c r="B62" s="215"/>
+      <c r="C62" s="216">
         <v>20511767666.96</v>
       </c>
-      <c r="D62" s="220">
+      <c r="D62" s="217">
         <v>13695736209.49</v>
       </c>
-      <c r="E62" s="220">
+      <c r="E62" s="217">
         <v>44100000000</v>
       </c>
-      <c r="F62" s="250">
+      <c r="F62" s="247">
         <v>703933685.45</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:6">
-      <c r="A63" s="185" t="s">
+      <c r="A63" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="217" t="s">
+      <c r="B63" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="211">
+      <c r="C63" s="208">
         <v>44896515.29</v>
       </c>
-      <c r="D63" s="210">
+      <c r="D63" s="207">
         <v>63126673.64</v>
       </c>
-      <c r="E63" s="208" t="s">
+      <c r="E63" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="F63" s="244" t="s">
+      <c r="F63" s="241" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="1:6">
-      <c r="A64" s="185" t="s">
+      <c r="A64" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="218"/>
-      <c r="C64" s="209">
+      <c r="B64" s="215"/>
+      <c r="C64" s="206">
         <v>20556664182.25</v>
       </c>
-      <c r="D64" s="221">
+      <c r="D64" s="218">
         <v>13758862883.13</v>
       </c>
-      <c r="E64" s="221">
+      <c r="E64" s="218">
         <v>44100000000</v>
       </c>
-      <c r="F64" s="245">
+      <c r="F64" s="242">
         <v>703933685.45</v>
       </c>
     </row>
     <row r="65" ht="17.25" spans="1:6">
-      <c r="A65" s="185" t="s">
+      <c r="A65" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="218"/>
-      <c r="C65" s="209">
+      <c r="B65" s="215"/>
+      <c r="C65" s="206">
         <v>44134885588.74</v>
       </c>
-      <c r="D65" s="221">
+      <c r="D65" s="218">
         <v>34716573312.3</v>
       </c>
-      <c r="E65" s="221">
+      <c r="E65" s="218">
         <v>44173335633.38</v>
       </c>
-      <c r="F65" s="245">
+      <c r="F65" s="242">
         <v>865539901.5</v>
       </c>
     </row>
@@ -7042,8 +7038,8 @@
   <sheetPr/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7666,8 +7662,8 @@
   <sheetPr/>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -7681,827 +7677,827 @@
     <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:6">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="124" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="124" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="125" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="155"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="129">
+      <c r="B3" s="78"/>
+      <c r="C3" s="127">
         <v>60171836524.16</v>
       </c>
-      <c r="D3" s="130">
+      <c r="D3" s="128">
         <v>48505481563.8</v>
       </c>
-      <c r="E3" s="129">
+      <c r="E3" s="127">
         <v>392365095.26</v>
       </c>
-      <c r="F3" s="140">
+      <c r="F3" s="138">
         <v>535058821.81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="126" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="131">
+      <c r="B4" s="78"/>
+      <c r="C4" s="129">
         <v>59725939.81</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="129">
         <v>42373323.47</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="131">
         <v>41718960264.06</v>
       </c>
-      <c r="D5" s="134">
+      <c r="D5" s="132">
         <v>38092161328.16</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="131">
         <v>1652214.11</v>
       </c>
-      <c r="F5" s="159">
+      <c r="F5" s="157">
         <v>4203725.8</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="136">
+      <c r="B6" s="78"/>
+      <c r="C6" s="134">
         <v>101950522728.03</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="135">
         <v>86640016215.43</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="134">
         <v>394017309.37</v>
       </c>
-      <c r="F6" s="156">
+      <c r="F6" s="154">
         <v>539262547.61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="138">
-        <v>-30733102010.37</v>
-      </c>
-      <c r="D7" s="139">
-        <v>-19289094256.89</v>
-      </c>
-      <c r="E7" s="138">
+      <c r="B7" s="78"/>
+      <c r="C7" s="136">
+        <v>30733102010.37</v>
+      </c>
+      <c r="D7" s="137">
+        <v>19289094256.89</v>
+      </c>
+      <c r="E7" s="136">
         <v>-258148215.42</v>
       </c>
-      <c r="F7" s="138">
+      <c r="F7" s="136">
         <v>-400907098.12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="129">
-        <v>-376368859.06</v>
-      </c>
-      <c r="D8" s="140">
-        <v>-272206230.83</v>
-      </c>
-      <c r="E8" s="158" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="127">
+        <v>376368859.06</v>
+      </c>
+      <c r="D8" s="138">
+        <v>272206230.83</v>
+      </c>
+      <c r="E8" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="129">
-        <v>-223011006.14</v>
-      </c>
-      <c r="D9" s="141" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="127">
+        <v>223011006.14</v>
+      </c>
+      <c r="D9" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="158" t="s">
+      <c r="E9" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="126" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="141" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="140">
-        <v>-248627321.39</v>
-      </c>
-      <c r="E10" s="158" t="s">
+      <c r="D10" s="138">
+        <v>248627321.39</v>
+      </c>
+      <c r="E10" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="141" t="s">
+      <c r="F10" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="129">
-        <v>-15550391479.59</v>
-      </c>
-      <c r="D11" s="130">
-        <v>-19943767473.64</v>
-      </c>
-      <c r="E11" s="129">
+      <c r="B11" s="78"/>
+      <c r="C11" s="127">
+        <v>15550391479.59</v>
+      </c>
+      <c r="D11" s="128">
+        <v>19943767473.64</v>
+      </c>
+      <c r="E11" s="127">
         <v>-26677135.25</v>
       </c>
-      <c r="F11" s="129">
+      <c r="F11" s="127">
         <v>-29959690.22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="129">
-        <v>-2629689263.41</v>
-      </c>
-      <c r="D12" s="130">
-        <v>-2022877431.79</v>
-      </c>
-      <c r="E12" s="129">
+      <c r="B12" s="78"/>
+      <c r="C12" s="127">
+        <v>2629689263.41</v>
+      </c>
+      <c r="D12" s="128">
+        <v>2022877431.79</v>
+      </c>
+      <c r="E12" s="127">
         <v>-26388322.73</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="127">
         <v>-19397146.74</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="126" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="129">
-        <v>-46762922323.59</v>
-      </c>
-      <c r="D13" s="130">
-        <v>-42081361668.34</v>
-      </c>
-      <c r="E13" s="129">
+      <c r="C13" s="127">
+        <v>46762922323.59</v>
+      </c>
+      <c r="D13" s="128">
+        <v>42081361668.34</v>
+      </c>
+      <c r="E13" s="127">
         <v>-33394276.67</v>
       </c>
-      <c r="F13" s="129">
+      <c r="F13" s="127">
         <v>-32222932.59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="129">
-        <v>-96275484942.16</v>
-      </c>
-      <c r="D14" s="130">
-        <v>-83857934382.88</v>
-      </c>
-      <c r="E14" s="129">
+      <c r="B14" s="78"/>
+      <c r="C14" s="127">
+        <v>96275484942.16</v>
+      </c>
+      <c r="D14" s="128">
+        <v>83857934382.88</v>
+      </c>
+      <c r="E14" s="127">
         <v>-344607950.07</v>
       </c>
-      <c r="F14" s="129">
+      <c r="F14" s="127">
         <v>-482486867.67</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="131">
         <v>5675037785.87</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="141">
         <v>2782081832.55</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="131">
         <v>49409359.3</v>
       </c>
-      <c r="F15" s="160">
+      <c r="F15" s="158">
         <v>56775679.94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="125" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="161"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="159"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="126" t="s">
         <v>297</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="129">
+      <c r="B17" s="78"/>
+      <c r="C17" s="127">
         <v>1275580807.29</v>
       </c>
-      <c r="D17" s="140">
+      <c r="D17" s="138">
         <v>1089575302.45</v>
       </c>
-      <c r="E17" s="129">
+      <c r="E17" s="127">
         <v>50000</v>
       </c>
-      <c r="F17" s="141" t="s">
+      <c r="F17" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="126" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="140">
+      <c r="B18" s="78"/>
+      <c r="C18" s="138">
         <v>368232124.37</v>
       </c>
-      <c r="D18" s="131">
+      <c r="D18" s="129">
         <v>548814550.79</v>
       </c>
-      <c r="E18" s="129">
+      <c r="E18" s="127">
         <v>59000</v>
       </c>
-      <c r="F18" s="162">
+      <c r="F18" s="160">
         <v>1019575.03</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="126" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="140">
+      <c r="C19" s="138">
         <v>110652843.66</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="158" t="s">
+      <c r="E19" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="141" t="s">
+      <c r="F19" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="126" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="131">
+      <c r="B20" s="78"/>
+      <c r="C20" s="129">
         <v>31189603.97</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="129">
         <v>18252834.02</v>
       </c>
-      <c r="E20" s="158" t="s">
+      <c r="E20" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="126" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="140">
+      <c r="C21" s="138">
         <v>642077960.96</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="129">
         <v>145772292.81</v>
       </c>
-      <c r="E21" s="158" t="s">
+      <c r="E21" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="130" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="131">
         <v>92450403185.99</v>
       </c>
-      <c r="D22" s="134">
+      <c r="D22" s="132">
         <v>92092946400</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="131">
         <v>47500000</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <v>55500000</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="133" t="s">
         <v>305</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="136">
+      <c r="B23" s="78"/>
+      <c r="C23" s="134">
         <v>94878136526.24</v>
       </c>
-      <c r="D23" s="137">
+      <c r="D23" s="135">
         <v>93895361380.07</v>
       </c>
-      <c r="E23" s="136">
+      <c r="E23" s="134">
         <v>47609000</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="150">
         <v>56519575.03</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="126" t="s">
         <v>306</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="138">
-        <v>-4861856960.33</v>
-      </c>
-      <c r="D24" s="139">
-        <v>-5412722865.85</v>
-      </c>
-      <c r="E24" s="138">
+      <c r="B24" s="78"/>
+      <c r="C24" s="136">
+        <v>4861856960.33</v>
+      </c>
+      <c r="D24" s="137">
+        <v>5412722865.85</v>
+      </c>
+      <c r="E24" s="136">
         <v>-2617460.8</v>
       </c>
-      <c r="F24" s="163">
+      <c r="F24" s="161">
         <v>-4192659.07</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="126" t="s">
         <v>307</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="129">
-        <v>-1844011786.37</v>
-      </c>
-      <c r="D25" s="130">
-        <v>-1947737977.27</v>
-      </c>
-      <c r="E25" s="129">
+      <c r="B25" s="78"/>
+      <c r="C25" s="127">
+        <v>1844011786.37</v>
+      </c>
+      <c r="D25" s="128">
+        <v>1947737977.27</v>
+      </c>
+      <c r="E25" s="127">
         <v>-10000000</v>
       </c>
-      <c r="F25" s="141" t="s">
+      <c r="F25" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="140">
-        <v>-104830056.92</v>
-      </c>
-      <c r="E26" s="158" t="s">
+      <c r="D26" s="138">
+        <v>104830056.92</v>
+      </c>
+      <c r="E26" s="156" t="s">
         <v>281</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="139" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="130" t="s">
         <v>309</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="125" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="133">
-        <v>-91887000000</v>
-      </c>
-      <c r="D27" s="134">
-        <v>-91683440842.47</v>
-      </c>
-      <c r="E27" s="164" t="s">
+      <c r="C27" s="131">
+        <v>91887000000</v>
+      </c>
+      <c r="D27" s="132">
+        <v>91683440842.47</v>
+      </c>
+      <c r="E27" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="F27" s="133">
+      <c r="F27" s="131">
         <v>-47500000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="142" t="s">
+      <c r="A28" s="140" t="s">
         <v>311</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="138">
-        <v>-98592868746.7</v>
-      </c>
-      <c r="D28" s="139">
-        <v>-99148731742.51</v>
-      </c>
-      <c r="E28" s="138">
+      <c r="B28" s="78"/>
+      <c r="C28" s="136">
+        <v>98592868746.7</v>
+      </c>
+      <c r="D28" s="137">
+        <v>99148731742.51</v>
+      </c>
+      <c r="E28" s="136">
         <v>-12617460.8</v>
       </c>
-      <c r="F28" s="138">
+      <c r="F28" s="136">
         <v>-51692659.07</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="133">
+      <c r="B29" s="142"/>
+      <c r="C29" s="131">
         <v>-3714732220.46</v>
       </c>
-      <c r="D29" s="134">
+      <c r="D29" s="132">
         <v>-5253370362.44</v>
       </c>
-      <c r="E29" s="133">
+      <c r="E29" s="131">
         <v>34991539.2</v>
       </c>
-      <c r="F29" s="159">
+      <c r="F29" s="157">
         <v>4826915.96</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="126" t="s">
+      <c r="E30" s="124" t="s">
         <v>276</v>
       </c>
-      <c r="F30" s="126" t="s">
+      <c r="F30" s="124" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
     </row>
     <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="143">
+      <c r="B32" s="78"/>
+      <c r="C32" s="141">
         <v>3925708705</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="F32" s="145" t="s">
+      <c r="F32" s="143" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="165"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="163"/>
     </row>
     <row r="34" ht="17.25" spans="1:6">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="147" t="s">
         <v>316</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="150">
+      <c r="B34" s="145"/>
+      <c r="C34" s="148">
         <v>3708705</v>
       </c>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="E34" s="145" t="s">
+      <c r="E34" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="F34" s="166" t="s">
+      <c r="F34" s="164" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="128" t="s">
+      <c r="A35" s="126" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="151">
+      <c r="B35" s="78"/>
+      <c r="C35" s="149">
         <v>6783842327.83</v>
       </c>
-      <c r="D35" s="139">
+      <c r="D35" s="137">
         <v>9904542548.6</v>
       </c>
-      <c r="E35" s="167">
+      <c r="E35" s="165">
         <v>70000000</v>
       </c>
-      <c r="F35" s="167">
+      <c r="F35" s="165">
         <v>40000000</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:6">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="125" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="143">
+      <c r="C36" s="141">
         <v>2045945476.8</v>
       </c>
-      <c r="D36" s="143">
+      <c r="D36" s="141">
         <v>658000000</v>
       </c>
-      <c r="E36" s="160">
+      <c r="E36" s="158">
         <v>37111797.05</v>
       </c>
-      <c r="F36" s="160">
+      <c r="F36" s="158">
         <v>14048400.34</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:6">
-      <c r="A37" s="135" t="s">
+      <c r="A37" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="137">
+      <c r="B37" s="78"/>
+      <c r="C37" s="135">
         <v>12755496509.63</v>
       </c>
-      <c r="D37" s="137">
+      <c r="D37" s="135">
         <v>10562542548.6</v>
       </c>
-      <c r="E37" s="156">
+      <c r="E37" s="154">
         <v>107111797.05</v>
       </c>
-      <c r="F37" s="152">
+      <c r="F37" s="150">
         <v>54048400.34</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="126" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="139">
-        <v>-7471666265.19</v>
-      </c>
-      <c r="D38" s="139">
-        <v>-4135207892.59</v>
-      </c>
-      <c r="E38" s="151">
+      <c r="B38" s="78"/>
+      <c r="C38" s="137">
+        <v>7471666265.19</v>
+      </c>
+      <c r="D38" s="137">
+        <v>4135207892.59</v>
+      </c>
+      <c r="E38" s="149">
         <v>-117000000</v>
       </c>
-      <c r="F38" s="151">
+      <c r="F38" s="149">
         <v>-67000000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="126" t="s">
         <v>322</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="130">
-        <v>-1809644000.4</v>
-      </c>
-      <c r="D39" s="130">
-        <v>-2211578994.55</v>
-      </c>
-      <c r="E39" s="140">
+      <c r="B39" s="78"/>
+      <c r="C39" s="128">
+        <v>1809644000.4</v>
+      </c>
+      <c r="D39" s="128">
+        <v>2211578994.55</v>
+      </c>
+      <c r="E39" s="138">
         <v>-22026187.82</v>
       </c>
-      <c r="F39" s="140">
+      <c r="F39" s="138">
         <v>-40684097.58</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="130" t="s">
         <v>323</v>
       </c>
-      <c r="B40" s="127" t="s">
+      <c r="B40" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="134">
-        <v>-2570904301.72</v>
-      </c>
-      <c r="D40" s="143">
-        <v>-658000000</v>
-      </c>
-      <c r="E40" s="143">
+      <c r="C40" s="132">
+        <v>2570904301.72</v>
+      </c>
+      <c r="D40" s="141">
+        <v>658000000</v>
+      </c>
+      <c r="E40" s="141">
         <v>-19567500</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="141">
         <v>-18795224.51</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="137">
-        <v>-11852214567.31</v>
-      </c>
-      <c r="D41" s="137">
-        <v>-7004786887.14</v>
-      </c>
-      <c r="E41" s="156">
+      <c r="B41" s="78"/>
+      <c r="C41" s="135">
+        <v>11852214567.31</v>
+      </c>
+      <c r="D41" s="135">
+        <v>7004786887.14</v>
+      </c>
+      <c r="E41" s="154">
         <v>-158593687.82</v>
       </c>
-      <c r="F41" s="168">
+      <c r="F41" s="166">
         <v>-126479322.09</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="132" t="s">
+    <row r="42" ht="17.25" spans="1:6">
+      <c r="A42" s="130" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="152">
+      <c r="B42" s="78"/>
+      <c r="C42" s="150">
         <v>903281942.32</v>
       </c>
-      <c r="D42" s="137">
+      <c r="D42" s="135">
         <v>3557755661.46</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="154">
         <v>-51481890.77</v>
       </c>
-      <c r="F42" s="156">
+      <c r="F42" s="154">
         <v>-72430921.75</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="125" t="s">
         <v>327</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="153">
+      <c r="B43" s="78"/>
+      <c r="C43" s="151">
         <v>61387055.88</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="151">
         <v>6458555.05</v>
       </c>
-      <c r="E43" s="169">
+      <c r="E43" s="167">
         <v>110702.77</v>
       </c>
-      <c r="F43" s="168">
+      <c r="F43" s="166">
         <v>1081666.08</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="125" t="s">
         <v>328</v>
       </c>
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="152">
         <v>2924974563.61</v>
       </c>
-      <c r="D44" s="155">
+      <c r="D44" s="153">
         <v>1092925686.62</v>
       </c>
-      <c r="E44" s="170">
+      <c r="E44" s="168">
         <v>33029710.5</v>
       </c>
-      <c r="F44" s="171">
+      <c r="F44" s="169">
         <v>-9746659.77</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="132" t="s">
+    <row r="45" ht="17.25" spans="1:6">
+      <c r="A45" s="130" t="s">
         <v>329</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="143">
+      <c r="B45" s="78"/>
+      <c r="C45" s="141">
         <v>3444801237.57</v>
       </c>
-      <c r="D45" s="134">
+      <c r="D45" s="132">
         <v>2351875550.95</v>
       </c>
-      <c r="E45" s="160">
+      <c r="E45" s="158">
         <v>25875907.81</v>
       </c>
-      <c r="F45" s="160">
+      <c r="F45" s="158">
         <v>35622567.58</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="C46" s="156">
+      <c r="C46" s="154">
         <v>6369775801.18</v>
       </c>
-      <c r="D46" s="137">
+      <c r="D46" s="135">
         <v>3444801237.57</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="150">
         <v>58905618.31</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="150">
         <v>25875907.81</v>
       </c>
     </row>
@@ -8534,74 +8530,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:10">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="113" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="111" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="112" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:10">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="72" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="71" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" ht="17.25" spans="1:10">
       <c r="A3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="74">
+      <c r="B3" s="68"/>
+      <c r="C3" s="72">
         <v>3950185873</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="73">
         <v>4540733277.62</v>
       </c>
-      <c r="E3" s="96">
+      <c r="E3" s="94">
         <v>60534785.48</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="75">
+      <c r="F3" s="95"/>
+      <c r="G3" s="73">
         <v>20970706.84</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="72">
         <v>5123311566.55</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="115">
         <v>63126673.64</v>
       </c>
-      <c r="J3" s="118">
+      <c r="J3" s="116">
         <v>13758862883.13</v>
       </c>
     </row>
@@ -8609,369 +8605,369 @@
       <c r="A4" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="85">
         <v>4180426152</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="85">
         <v>-19641210.66</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="85">
         <v>4160784941.34</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:10">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="98">
         <v>206147901.45</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="G7" s="102" t="s">
+      <c r="G7" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="I7" s="119">
+      <c r="I7" s="117">
         <v>-2297652.7</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="118">
         <v>203850248.75</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="82" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="101">
         <v>206147901.45</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="102" t="s">
         <v>345</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="104">
         <v>4180426152</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="104">
         <v>-21938863.36</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="104">
         <v>4364635190.09</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="85">
         <v>3922000000</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I9" s="109">
+      <c r="I9" s="107">
         <v>3708705.01</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="85">
         <v>3925708705.01</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="86" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="87">
         <v>233492340</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="85">
         <v>-233492340</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="119" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="80"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="87">
         <v>251142495.91</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="85">
         <v>-251142495.91</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="119" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="106">
         <v>-1500000000</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="120">
         <v>-1500000000</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="83" t="s">
         <v>358</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="89">
         <v>7457404.02</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="89">
         <v>7457404.02</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="80"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="107">
         <v>5669064.68</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="J16" s="91">
+      <c r="J16" s="89">
         <v>5669064.68</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:10">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="108">
         <v>-5669064.68</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="100" t="s">
         <v>345</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="I17" s="101" t="s">
+      <c r="I17" s="99" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="117">
         <v>-5669064.68</v>
       </c>
     </row>
@@ -8979,29 +8975,29 @@
       <c r="A18" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="92">
+      <c r="B18" s="74"/>
+      <c r="C18" s="90">
         <v>4183678213</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <v>8236698341.64</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="109">
         <v>266682686.93</v>
       </c>
-      <c r="F18" s="112" t="s">
+      <c r="F18" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="109">
         <v>272113202.75</v>
       </c>
-      <c r="H18" s="93">
+      <c r="H18" s="91">
         <v>7552595222.64</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="91">
         <v>44896515.29</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="121">
         <v>20556664182.25</v>
       </c>
     </row>
@@ -9063,7 +9059,7 @@
       <c r="H1" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="68"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -9076,7 +9072,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
-      <c r="I2" s="68"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
@@ -9100,10 +9096,10 @@
       <c r="G3" s="14">
         <v>7827182.25</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="12">
         <v>2497722827.51</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
@@ -9116,7 +9112,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="41"/>
       <c r="H4" s="42"/>
-      <c r="I4" s="68"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="12" t="s">
@@ -9143,7 +9139,7 @@
       <c r="H5" s="14">
         <v>724241624.66</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
@@ -9158,19 +9154,19 @@
       <c r="D6" s="11">
         <v>247500381.31</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>187</v>
       </c>
       <c r="H6" s="14">
         <v>247500381.31</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -9185,19 +9181,19 @@
       <c r="D7" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="12">
         <v>1437519149.27</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
@@ -9210,7 +9206,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="41"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="68"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
@@ -9225,19 +9221,19 @@
       <c r="D9" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>187</v>
       </c>
       <c r="F9" s="10">
         <v>-11850</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>187</v>
       </c>
       <c r="H9" s="10">
         <v>-721251.72</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
       <c r="A10" s="18" t="s">
@@ -9252,19 +9248,19 @@
       <c r="D10" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <v>-19521133.74</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
       <c r="A11" s="9" t="s">
@@ -9279,19 +9275,19 @@
       <c r="D11" s="22">
         <v>435884670.92</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="50">
         <v>44754419.1</v>
       </c>
       <c r="F11" s="22">
         <v>27890769.75</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <v>8715117.13</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="51">
         <v>4886741597.29</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="23" t="s">
@@ -9300,11 +9296,11 @@
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="53"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="68"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="23" t="s">
@@ -9331,7 +9327,7 @@
       <c r="H13" s="14">
         <v>211096763.55</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
@@ -9344,7 +9340,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="68"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
@@ -9371,7 +9367,7 @@
       <c r="H15" s="14">
         <v>177377471.6</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
@@ -9386,19 +9382,19 @@
       <c r="D16" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="45">
         <v>22312883.32</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
@@ -9411,7 +9407,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="41"/>
       <c r="H17" s="42"/>
-      <c r="I17" s="68"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
@@ -9426,19 +9422,19 @@
       <c r="D18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="45">
         <v>-1678.75</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
         <v>187</v>
       </c>
       <c r="H18" s="10">
         <v>-155382.43</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
       <c r="A19" s="18" t="s">
@@ -9453,19 +9449,19 @@
       <c r="D19" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="I19" s="68"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" ht="17.25" spans="1:8">
       <c r="A20" s="30" t="s">
@@ -9486,10 +9482,10 @@
       <c r="F20" s="32">
         <v>4377630.68</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="59">
         <v>410442864.72</v>
       </c>
     </row>
@@ -9502,8 +9498,8 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" ht="17.25" spans="1:8">
       <c r="A22" s="30" t="s">
@@ -9524,10 +9520,10 @@
       <c r="F22" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="62">
         <v>6952964.66</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="63">
         <v>4476892732.57</v>
       </c>
     </row>
@@ -9550,10 +9546,10 @@
       <c r="F23" s="39">
         <v>24768645.96</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="64">
         <v>6915057.75</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="65">
         <v>2286626063.96</v>
       </c>
     </row>
@@ -9569,7 +9565,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
